--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>OFFICE</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">PERIOD: </t>
   </si>
   <si>
-    <t>Month of June 2020</t>
+    <t>Month of January 2021</t>
   </si>
   <si>
     <t>Date</t>
@@ -167,37 +167,61 @@
     </r>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>January 04, 2021</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-07</t>
-  </si>
-  <si>
-    <t>2020-06-08</t>
-  </si>
-  <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
+    <t>January 05, 2021</t>
+  </si>
+  <si>
+    <t>January 07, 2021</t>
+  </si>
+  <si>
+    <t>January 08, 2021</t>
+  </si>
+  <si>
+    <t>January 11, 2021</t>
+  </si>
+  <si>
+    <t>January 12, 2021</t>
+  </si>
+  <si>
+    <t>January 13, 2021</t>
+  </si>
+  <si>
+    <t>January 14, 2021</t>
+  </si>
+  <si>
+    <t>January 15, 2021</t>
+  </si>
+  <si>
+    <t>January 18, 2021</t>
+  </si>
+  <si>
+    <t>January 19, 2021</t>
+  </si>
+  <si>
+    <t>January 20, 2021</t>
+  </si>
+  <si>
+    <t>January 21, 2021</t>
+  </si>
+  <si>
+    <t>January 22, 2021</t>
+  </si>
+  <si>
+    <t>January 25, 2021</t>
+  </si>
+  <si>
+    <t>January 26, 2021</t>
+  </si>
+  <si>
+    <t>January 28, 2021</t>
+  </si>
+  <si>
+    <t>January 29, 2021</t>
   </si>
   <si>
     <t>Total</t>
@@ -616,6 +640,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12287250" cy="1905000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -926,7 +980,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="55" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,25 +1265,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
@@ -1237,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="N19" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
@@ -1248,25 +1302,25 @@
         <v>25</v>
       </c>
       <c r="B20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
@@ -1274,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
@@ -1322,25 +1376,25 @@
         <v>27</v>
       </c>
       <c r="B22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
@@ -1348,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="N22" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
@@ -1359,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="B23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
@@ -1385,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="N23" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O23" s="41"/>
       <c r="P23" s="41"/>
@@ -1396,25 +1450,25 @@
         <v>29</v>
       </c>
       <c r="B24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="41"/>
       <c r="E24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
@@ -1422,7 +1476,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
@@ -1433,25 +1487,25 @@
         <v>30</v>
       </c>
       <c r="B25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -1459,7 +1513,7 @@
         <v>23</v>
       </c>
       <c r="N25" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
@@ -1470,25 +1524,25 @@
         <v>31</v>
       </c>
       <c r="B26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
@@ -1496,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="N26" s="41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
@@ -1507,25 +1561,25 @@
         <v>32</v>
       </c>
       <c r="B27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
       <c r="E27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="41" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="41"/>
       <c r="L27" s="41"/>
@@ -1533,185 +1587,307 @@
         <v>23</v>
       </c>
       <c r="N27" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="A28" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41">
+        <v>1</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41">
+        <v>1</v>
+      </c>
+      <c r="H28" s="41">
+        <v>1</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="41">
+        <v>1</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="41">
+        <v>1</v>
+      </c>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="43" t="str">
-        <f>SUM(B18:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43" t="str">
-        <f>SUM(E18:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="43" t="str">
-        <f>SUM(G18:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="43" t="str">
-        <f>SUM(H18:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="43">
-        <v>1</v>
-      </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="43">
-        <v>1</v>
-      </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
+      <c r="A29" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="41">
+        <v>1</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41">
+        <v>1</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="41">
+        <v>1</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="41">
+        <v>1</v>
+      </c>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="A30" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="41">
+        <v>3</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41">
+        <v>3</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41">
+        <v>3</v>
+      </c>
+      <c r="H30" s="41">
+        <v>3</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="41">
+        <v>3</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="41">
+        <v>3</v>
+      </c>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="A31" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="41">
+        <v>1</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41">
+        <v>1</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41">
+        <v>1</v>
+      </c>
+      <c r="H31" s="41">
+        <v>1</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="41">
+        <v>1</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="41">
+        <v>1</v>
+      </c>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="A32" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="41">
+        <v>5</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41">
+        <v>5</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41">
+        <v>5</v>
+      </c>
+      <c r="H32" s="41">
+        <v>5</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="41">
+        <v>5</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="41">
+        <v>5</v>
+      </c>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="A33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="41">
+        <v>2</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41">
+        <v>2</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41">
+        <v>2</v>
+      </c>
+      <c r="H33" s="41">
+        <v>2</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="41">
+        <v>2</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="41">
+        <v>2</v>
+      </c>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="A34" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="41">
+        <v>2</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41">
+        <v>2</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41">
+        <v>2</v>
+      </c>
+      <c r="H34" s="41">
+        <v>2</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="41">
+        <v>2</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="41">
+        <v>2</v>
+      </c>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="A35" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="41">
+        <v>4</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41">
+        <v>4</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41">
+        <v>4</v>
+      </c>
+      <c r="H35" s="41">
+        <v>4</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="41">
+        <v>4</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="41">
+        <v>4</v>
+      </c>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="13"/>
@@ -1733,23 +1909,45 @@
       <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="A37" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="43" t="str">
+        <f>SUM(B18:B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="43" t="str">
+        <f>SUM(E18:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="43" t="str">
+        <f>SUM(G18:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="43" t="str">
+        <f>SUM(H18:H35)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="43">
+        <v>1</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="43">
+        <v>1</v>
+      </c>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4"/>

--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -283,15 +283,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -302,6 +293,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -459,16 +459,61 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="9" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -492,64 +537,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="9" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -598,9 +598,9 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2924175" cy="857250"/>
+    <xdr:ext cx="2924175" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 6" descr=""/>
@@ -655,12 +655,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12287250" cy="1905000"/>
+    <xdr:ext cx="5000625" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="" descr=""/>
@@ -670,6 +670,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8829675" cy="1428750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1003,73 +1033,73 @@
       <c r="M1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="30">
-      <c r="A11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="31" t="s">
+      <c r="A11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
@@ -1078,44 +1108,44 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3"/>
@@ -1137,47 +1167,47 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="29" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="67.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1202,15 +1232,15 @@
       <c r="P16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="29"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1223,671 +1253,671 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:17" customHeight="1" ht="24">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="41">
-        <v>1</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41">
-        <v>1</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="41">
-        <v>1</v>
-      </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="41">
-        <v>1</v>
-      </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="41" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="24">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="41">
-        <v>3</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41">
-        <v>3</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41">
-        <v>3</v>
-      </c>
-      <c r="H19" s="41">
-        <v>3</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="41">
-        <v>3</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="41">
-        <v>3</v>
-      </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="41" t="s">
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
+        <v>3</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="14">
+        <v>3</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="24">
+      <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="41">
-        <v>4</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41">
-        <v>4</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41">
-        <v>4</v>
-      </c>
-      <c r="H20" s="41">
-        <v>4</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="41">
-        <v>4</v>
-      </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="41">
-        <v>4</v>
-      </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="41" t="s">
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="14">
+        <v>4</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="24">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
         <v>2</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
         <v>2</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="14">
         <v>2</v>
       </c>
-      <c r="I21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="41">
+      <c r="I21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="14">
         <v>2</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="41">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="14">
         <v>2</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="41" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="24">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41">
-        <v>3</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41">
-        <v>3</v>
-      </c>
-      <c r="H22" s="41">
-        <v>3</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="41">
-        <v>3</v>
-      </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="41">
-        <v>3</v>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14">
+        <v>3</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>3</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="14">
+        <v>3</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="24">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="41">
-        <v>4</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41">
-        <v>4</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41">
-        <v>4</v>
-      </c>
-      <c r="H23" s="41">
-        <v>4</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="41">
-        <v>4</v>
-      </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="41">
-        <v>4</v>
-      </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="41" t="s">
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>4</v>
+      </c>
+      <c r="H23" s="14">
+        <v>4</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="14">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="14">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="24">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="14">
         <v>8</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
         <v>8</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>8</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="14">
         <v>8</v>
       </c>
-      <c r="I24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="41">
+      <c r="I24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="14">
         <v>8</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="41">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="14">
         <v>8</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="41" t="s">
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="24">
+      <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="41">
-        <v>4</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41">
-        <v>4</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41">
-        <v>4</v>
-      </c>
-      <c r="H25" s="41">
-        <v>4</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="41">
-        <v>4</v>
-      </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="41">
-        <v>4</v>
-      </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="41" t="s">
+      <c r="B25" s="14">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14">
+        <v>4</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="14">
+        <v>4</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="24">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="41">
-        <v>3</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41">
-        <v>3</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41">
-        <v>3</v>
-      </c>
-      <c r="H26" s="41">
-        <v>3</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="41">
-        <v>3</v>
-      </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="41">
-        <v>3</v>
-      </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14">
+        <v>3</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="14">
+        <v>3</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="14">
+        <v>3</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="24">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="41">
-        <v>4</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41">
-        <v>4</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41">
-        <v>4</v>
-      </c>
-      <c r="H27" s="41">
-        <v>4</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="41">
-        <v>4</v>
-      </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="41">
-        <v>4</v>
-      </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="41" t="s">
+      <c r="B27" s="14">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14">
+        <v>4</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>4</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="14">
+        <v>4</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="24">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="41">
-        <v>1</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41">
-        <v>1</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41">
-        <v>1</v>
-      </c>
-      <c r="H28" s="41">
-        <v>1</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="41">
-        <v>1</v>
-      </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="41">
-        <v>1</v>
-      </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="41" t="s">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="24">
+      <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="41">
-        <v>1</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41">
-        <v>1</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41">
-        <v>1</v>
-      </c>
-      <c r="H29" s="41">
-        <v>1</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="41">
-        <v>1</v>
-      </c>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="41">
-        <v>1</v>
-      </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="41" t="s">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="24">
+      <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="41">
-        <v>3</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41">
-        <v>3</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41">
-        <v>3</v>
-      </c>
-      <c r="H30" s="41">
-        <v>3</v>
-      </c>
-      <c r="I30" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="41">
-        <v>3</v>
-      </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="41">
-        <v>3</v>
-      </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="41" t="s">
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
+        <v>3</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <v>3</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="14">
+        <v>3</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="14">
+        <v>3</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="24">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41">
-        <v>1</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41">
-        <v>1</v>
-      </c>
-      <c r="H31" s="41">
-        <v>1</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="41">
-        <v>1</v>
-      </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="41">
-        <v>1</v>
-      </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="41" t="s">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="24">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="14">
         <v>5</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
         <v>5</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>5</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="14">
         <v>5</v>
       </c>
-      <c r="I32" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="41">
+      <c r="I32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="14">
         <v>5</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="41">
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="14">
         <v>5</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="41" t="s">
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="24">
+      <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="14">
         <v>2</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14">
         <v>2</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <v>2</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="14">
         <v>2</v>
       </c>
-      <c r="I33" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="41">
+      <c r="I33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="14">
         <v>2</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="41">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="14">
         <v>2</v>
       </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="41" t="s">
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="24">
+      <c r="A34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="14">
         <v>2</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14">
         <v>2</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
         <v>2</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="14">
         <v>2</v>
       </c>
-      <c r="I34" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="41">
+      <c r="I34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="14">
         <v>2</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="41">
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="14">
         <v>2</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="41" t="s">
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="24">
+      <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="41">
-        <v>4</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41">
-        <v>4</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41">
-        <v>4</v>
-      </c>
-      <c r="H35" s="41">
-        <v>4</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="41">
-        <v>4</v>
-      </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="41">
-        <v>4</v>
-      </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
+      <c r="B35" s="14">
+        <v>4</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14">
+        <v>4</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
+        <v>4</v>
+      </c>
+      <c r="H35" s="14">
+        <v>4</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="14">
+        <v>4</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="14">
+        <v>4</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="13"/>
@@ -1909,45 +1939,45 @@
       <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="43" t="str">
+      <c r="B37" s="16" t="str">
         <f>SUM(B18:B35)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="43" t="str">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="str">
         <f>SUM(E18:E35)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="43" t="str">
+      <c r="F37" s="17"/>
+      <c r="G37" s="16" t="str">
         <f>SUM(G18:G35)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="43" t="str">
+      <c r="H37" s="16" t="str">
         <f>SUM(H18:H35)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="43">
-        <v>1</v>
-      </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="43">
-        <v>1</v>
-      </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
+      <c r="I37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="16">
+        <v>1</v>
+      </c>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4"/>
@@ -2142,25 +2172,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2174,10 +2185,29 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="80" fitToHeight="0" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="76" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>OFFICE</t>
   </si>
@@ -36,11 +41,6 @@
     <t>QUALITY OBJECTIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) hours upon receipt of request or within agreed timeline
-2. 85% Satisfactory service rendered
-</t>
-  </si>
-  <si>
     <t>FREQUENCY OF MONITORING:</t>
   </si>
   <si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Total number of ICT Technical Assistance responded within three (3) hours upon receipt of request or within agreed timeline</t>
   </si>
   <si>
     <t>Total number of request for ICT Technical Assistance</t>
@@ -82,27 +79,22 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">&gt;                           85%</t>
+      <t>&gt;                           85%</t>
     </r>
   </si>
   <si>
@@ -111,27 +103,22 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">&gt;                           85%</t>
+      <t>&gt;                           85%</t>
     </r>
   </si>
   <si>
@@ -143,27 +130,22 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">&gt;                          85%</t>
+      <t>&gt;                          85%</t>
     </r>
   </si>
   <si>
@@ -225,83 +207,69 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
+2. 85% Satisfactory service rendered
+</t>
+  </si>
+  <si>
+    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -311,10 +279,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -333,231 +298,267 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="9" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -573,7 +574,7 @@
     <xdr:ext cx="1247775" cy="1200150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 4" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -585,7 +586,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -603,7 +607,7 @@
     <xdr:ext cx="2924175" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -615,7 +619,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -633,7 +640,7 @@
     <xdr:ext cx="2638425" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -645,67 +652,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5000625" cy="762000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8829675" cy="1428750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1002,152 +952,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="55" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.7109375" hidden="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.85546875" hidden="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.28515625" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.28515625" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.85546875" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11.28515625" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11.42578125" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.85546875" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10.85546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="M1"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="36" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="30">
-      <c r="A11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="19" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="39" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1166,81 +1110,81 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" customHeight="1" ht="14.45">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34" t="s">
+      <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="I15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="67.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34"/>
+    </row>
+    <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="L16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="M16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="P16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="44"/>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1253,19 +1197,19 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" customHeight="1" ht="24">
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14"/>
+      <c r="E18" s="36">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
       <c r="G18" s="14">
         <v>1</v>
       </c>
@@ -1273,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -1281,7 +1225,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="14">
         <v>1</v>
@@ -1290,19 +1234,19 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" customHeight="1" ht="24">
+    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14">
-        <v>3</v>
-      </c>
-      <c r="F19" s="14"/>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="14">
         <v>3</v>
       </c>
@@ -1310,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="14">
         <v>3</v>
@@ -1318,7 +1262,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19" s="14">
         <v>3</v>
@@ -1327,19 +1271,19 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" customHeight="1" ht="24">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14">
         <v>4</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="14">
-        <v>4</v>
-      </c>
-      <c r="F20" s="14"/>
+      <c r="E20" s="36">
+        <v>4</v>
+      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="14">
         <v>4</v>
       </c>
@@ -1347,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="14">
         <v>4</v>
@@ -1355,7 +1299,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20" s="14">
         <v>4</v>
@@ -1364,19 +1308,19 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" customHeight="1" ht="24">
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14">
+      <c r="E21" s="36">
         <v>2</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="14">
         <v>2</v>
       </c>
@@ -1384,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14">
         <v>2</v>
@@ -1392,7 +1336,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="14">
         <v>2</v>
@@ -1401,19 +1345,19 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" customHeight="1" ht="24">
+    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="14">
         <v>3</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="14">
-        <v>3</v>
-      </c>
-      <c r="F22" s="14"/>
+      <c r="E22" s="36">
+        <v>3</v>
+      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="14">
         <v>3</v>
       </c>
@@ -1421,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="14">
         <v>3</v>
@@ -1429,7 +1373,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="14">
         <v>3</v>
@@ -1438,19 +1382,19 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" customHeight="1" ht="24">
+    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14">
         <v>4</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14">
-        <v>4</v>
-      </c>
-      <c r="F23" s="14"/>
+      <c r="E23" s="36">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="14">
         <v>4</v>
       </c>
@@ -1458,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="14">
         <v>4</v>
@@ -1466,7 +1410,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N23" s="14">
         <v>4</v>
@@ -1475,19 +1419,19 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" customHeight="1" ht="24">
+    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="14">
         <v>8</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14">
+      <c r="E24" s="36">
         <v>8</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="14">
         <v>8</v>
       </c>
@@ -1495,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="14">
         <v>8</v>
@@ -1503,7 +1447,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="14">
         <v>8</v>
@@ -1512,19 +1456,19 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" customHeight="1" ht="24">
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14">
         <v>4</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14">
-        <v>4</v>
-      </c>
-      <c r="F25" s="14"/>
+      <c r="E25" s="36">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36"/>
       <c r="G25" s="14">
         <v>4</v>
       </c>
@@ -1532,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" s="14">
         <v>4</v>
@@ -1540,7 +1484,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25" s="14">
         <v>4</v>
@@ -1549,19 +1493,19 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" customHeight="1" ht="24">
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14">
-        <v>3</v>
-      </c>
-      <c r="F26" s="14"/>
+      <c r="E26" s="36">
+        <v>3</v>
+      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
@@ -1569,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="14">
         <v>3</v>
@@ -1577,7 +1521,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N26" s="14">
         <v>3</v>
@@ -1586,19 +1530,19 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="24">
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="14">
         <v>4</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14">
-        <v>4</v>
-      </c>
-      <c r="F27" s="14"/>
+      <c r="E27" s="36">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="14">
         <v>4</v>
       </c>
@@ -1606,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" s="14">
         <v>4</v>
@@ -1614,7 +1558,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" s="14">
         <v>4</v>
@@ -1623,19 +1567,19 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" customHeight="1" ht="24">
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="14">
         <v>1</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14"/>
+      <c r="E28" s="36">
+        <v>1</v>
+      </c>
+      <c r="F28" s="36"/>
       <c r="G28" s="14">
         <v>1</v>
       </c>
@@ -1643,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J28" s="14">
         <v>1</v>
@@ -1651,7 +1595,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28" s="14">
         <v>1</v>
@@ -1660,19 +1604,19 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" customHeight="1" ht="24">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14"/>
+      <c r="E29" s="36">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
@@ -1680,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="14">
         <v>1</v>
@@ -1688,7 +1632,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29" s="14">
         <v>1</v>
@@ -1697,19 +1641,19 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" customHeight="1" ht="24">
+    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14">
         <v>3</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="14">
-        <v>3</v>
-      </c>
-      <c r="F30" s="14"/>
+      <c r="E30" s="36">
+        <v>3</v>
+      </c>
+      <c r="F30" s="36"/>
       <c r="G30" s="14">
         <v>3</v>
       </c>
@@ -1717,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30" s="14">
         <v>3</v>
@@ -1725,7 +1669,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="14">
         <v>3</v>
@@ -1734,9 +1678,9 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" customHeight="1" ht="24">
+    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="14">
         <v>1</v>
@@ -1754,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="14">
         <v>1</v>
@@ -1762,7 +1706,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31" s="14">
         <v>1</v>
@@ -1771,9 +1715,9 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" customHeight="1" ht="24">
+    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="14">
         <v>5</v>
@@ -1791,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="14">
         <v>5</v>
@@ -1799,7 +1743,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N32" s="14">
         <v>5</v>
@@ -1808,9 +1752,9 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" customHeight="1" ht="24">
+    <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="14">
         <v>2</v>
@@ -1828,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="14">
         <v>2</v>
@@ -1836,7 +1780,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N33" s="14">
         <v>2</v>
@@ -1845,9 +1789,9 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:17" customHeight="1" ht="24">
+    <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="14">
         <v>2</v>
@@ -1865,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J34" s="14">
         <v>2</v>
@@ -1873,7 +1817,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34" s="14">
         <v>2</v>
@@ -1882,9 +1826,9 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" customHeight="1" ht="24">
+    <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="14">
         <v>4</v>
@@ -1902,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="14">
         <v>4</v>
@@ -1910,7 +1854,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35" s="14">
         <v>4</v>
@@ -1919,7 +1863,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1938,31 +1882,31 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="16" t="str">
+        <v>39</v>
+      </c>
+      <c r="B37" s="16">
         <f>SUM(B18:B35)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="16" t="str">
+      <c r="E37" s="16">
         <f>SUM(E18:E35)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="16" t="str">
+      <c r="G37" s="16">
         <f>SUM(G18:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16" t="str">
+        <v>55</v>
+      </c>
+      <c r="H37" s="16">
         <f>SUM(H18:H35)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" s="16">
         <v>1</v>
@@ -1970,7 +1914,7 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N37" s="16">
         <v>1</v>
@@ -1979,7 +1923,7 @@
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1998,7 +1942,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2017,7 +1961,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2036,7 +1980,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2055,7 +1999,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2074,7 +2018,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2093,7 +2037,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2112,7 +2056,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2131,7 +2075,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2150,7 +2094,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2170,8 +2114,27 @@
       <c r="Q47" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="32">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2185,99 +2148,41 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="76" fitToHeight="0" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" man="1"/>
   </colBreaks>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -461,6 +461,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,42 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,7 +958,7 @@
   </sheetPr>
   <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -977,73 +977,73 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="35" t="s">
+      <c r="A11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1052,44 +1052,44 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1111,47 +1111,47 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="33" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1176,15 +1176,15 @@
       <c r="P16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1206,10 +1206,10 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="14">
         <v>1</v>
       </c>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="36">
-        <v>3</v>
-      </c>
-      <c r="F19" s="36"/>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="14">
         <v>3</v>
       </c>
@@ -1280,10 +1280,10 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="36">
-        <v>4</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="14">
         <v>4</v>
       </c>
@@ -1317,10 +1317,10 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="36">
+      <c r="E21" s="18">
         <v>2</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="14">
         <v>2</v>
       </c>
@@ -1354,10 +1354,10 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="36">
-        <v>3</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="14">
         <v>3</v>
       </c>
@@ -1391,10 +1391,10 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="36">
-        <v>4</v>
-      </c>
-      <c r="F23" s="36"/>
+      <c r="E23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="14">
         <v>4</v>
       </c>
@@ -1428,10 +1428,10 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="36">
+      <c r="E24" s="18">
         <v>8</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="14">
         <v>8</v>
       </c>
@@ -1465,10 +1465,10 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="36">
-        <v>4</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="14">
         <v>4</v>
       </c>
@@ -1502,10 +1502,10 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="36">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="18">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
@@ -1539,10 +1539,10 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="36">
-        <v>4</v>
-      </c>
-      <c r="F27" s="36"/>
+      <c r="E27" s="18">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="14">
         <v>4</v>
       </c>
@@ -1576,10 +1576,10 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="36">
-        <v>1</v>
-      </c>
-      <c r="F28" s="36"/>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="14">
         <v>1</v>
       </c>
@@ -1613,10 +1613,10 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="36">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36"/>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
@@ -1650,10 +1650,10 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="36">
-        <v>3</v>
-      </c>
-      <c r="F30" s="36"/>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="14">
         <v>3</v>
       </c>
@@ -2116,25 +2116,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2148,9 +2129,28 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" man="1"/>
   </rowBreaks>

--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>OFFICE</t>
   </si>
@@ -41,6 +36,11 @@
     <t>QUALITY OBJECTIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
+2. 85% Satisfactory service rendered
+</t>
+  </si>
+  <si>
     <t>FREQUENCY OF MONITORING:</t>
   </si>
   <si>
@@ -50,10 +50,13 @@
     <t xml:space="preserve">PERIOD: </t>
   </si>
   <si>
-    <t>Month of January 2021</t>
+    <t>Month of April 2021</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
   <si>
     <t>Total number of request for ICT Technical Assistance</t>
@@ -79,22 +82,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
-      <t>&gt;                           85%</t>
+      <t xml:space="preserve">&gt;                           85%</t>
     </r>
   </si>
   <si>
@@ -103,22 +111,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
-      <t>&gt;                           85%</t>
+      <t xml:space="preserve">&gt;                           85%</t>
     </r>
   </si>
   <si>
@@ -130,146 +143,153 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <rFont val="Cambria"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
-      <t>&gt;                          85%</t>
+      <t xml:space="preserve">&gt;                          85%</t>
     </r>
   </si>
   <si>
-    <t>January 04, 2021</t>
+    <t>April 05, 2021</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>January 05, 2021</t>
-  </si>
-  <si>
-    <t>January 07, 2021</t>
-  </si>
-  <si>
-    <t>January 08, 2021</t>
-  </si>
-  <si>
-    <t>January 11, 2021</t>
-  </si>
-  <si>
-    <t>January 12, 2021</t>
-  </si>
-  <si>
-    <t>January 13, 2021</t>
-  </si>
-  <si>
-    <t>January 14, 2021</t>
-  </si>
-  <si>
-    <t>January 15, 2021</t>
-  </si>
-  <si>
-    <t>January 18, 2021</t>
-  </si>
-  <si>
-    <t>January 19, 2021</t>
-  </si>
-  <si>
-    <t>January 20, 2021</t>
-  </si>
-  <si>
-    <t>January 21, 2021</t>
-  </si>
-  <si>
-    <t>January 22, 2021</t>
-  </si>
-  <si>
-    <t>January 25, 2021</t>
-  </si>
-  <si>
-    <t>January 26, 2021</t>
-  </si>
-  <si>
-    <t>January 28, 2021</t>
-  </si>
-  <si>
-    <t>January 29, 2021</t>
+    <t>April 06, 2021</t>
+  </si>
+  <si>
+    <t>April 07, 2021</t>
+  </si>
+  <si>
+    <t>April 08, 2021</t>
+  </si>
+  <si>
+    <t>April 12, 2021</t>
+  </si>
+  <si>
+    <t>April 14, 2021</t>
+  </si>
+  <si>
+    <t>April 15, 2021</t>
+  </si>
+  <si>
+    <t>April 16, 2021</t>
+  </si>
+  <si>
+    <t>April 19, 2021</t>
+  </si>
+  <si>
+    <t>April 22, 2021</t>
+  </si>
+  <si>
+    <t>April 26, 2021</t>
+  </si>
+  <si>
+    <t>April 28, 2021</t>
+  </si>
+  <si>
+    <t>April 29, 2021</t>
+  </si>
+  <si>
+    <t>April 30, 2021</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
-2. 85% Satisfactory service rendered
-</t>
-  </si>
-  <si>
-    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -279,7 +299,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -298,267 +321,240 @@
     </fill>
   </fills>
   <borders count="10">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="48">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="9" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="9" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -574,7 +570,7 @@
     <xdr:ext cx="1247775" cy="1200150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4"/>
+        <xdr:cNvPr id="1" name="Picture 4" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -586,10 +582,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -607,7 +600,7 @@
     <xdr:ext cx="2924175" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 6"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -619,10 +612,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -640,7 +630,7 @@
     <xdr:ext cx="2638425" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -652,10 +642,67 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8343900" cy="1276350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9963150" cy="1609725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -709,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +791,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,146 +999,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A9:Q47"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.7109375" hidden="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.85546875" hidden="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.28515625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.85546875" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11.28515625" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11.42578125" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.85546875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="M1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="30">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="27" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1110,81 +1163,81 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35" t="s">
+    <row r="15" spans="1:17" customHeight="1" ht="14.45">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
+      <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="45" t="s">
+      <c r="H15" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35"/>
+      <c r="I15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="67.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="N16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="P16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="45"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1197,19 +1250,19 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" customHeight="1" ht="24">
       <c r="A18" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="14">
         <v>1</v>
       </c>
@@ -1217,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -1225,7 +1278,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N18" s="14">
         <v>1</v>
@@ -1234,101 +1287,101 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" customHeight="1" ht="24">
       <c r="A19" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-      <c r="F19" s="18"/>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="14">
-        <v>3</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J19" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N19" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" customHeight="1" ht="24">
       <c r="A20" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="E20" s="14">
+        <v>3</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="14">
-        <v>4</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N20" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" customHeight="1" ht="24">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18"/>
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+      <c r="F21" s="14"/>
       <c r="G21" s="14">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <v>2</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>21</v>
+      <c r="I21" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J21" s="14">
         <v>2</v>
@@ -1336,7 +1389,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N21" s="14">
         <v>2</v>
@@ -1345,175 +1398,175 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" customHeight="1" ht="24">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="18">
-        <v>3</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="14">
-        <v>3</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" customHeight="1" ht="24">
       <c r="A23" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="18">
-        <v>4</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="E23" s="14">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="14">
-        <v>4</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J23" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N23" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" customHeight="1" ht="24">
       <c r="A24" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18">
-        <v>8</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="E24" s="14">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H24" s="14">
-        <v>8</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J24" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N24" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" customHeight="1" ht="24">
       <c r="A25" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="18">
-        <v>4</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="E25" s="14">
+        <v>3</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="14">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J25" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N25" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" customHeight="1" ht="24">
       <c r="A26" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="14">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="18">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18"/>
+      <c r="E26" s="14">
+        <v>3</v>
+      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
       <c r="H26" s="14">
         <v>3</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>21</v>
+      <c r="I26" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J26" s="14">
         <v>3</v>
@@ -1521,7 +1574,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N26" s="14">
         <v>3</v>
@@ -1530,64 +1583,64 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" customHeight="1" ht="24">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="18">
-        <v>4</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="14">
+        <v>3</v>
+      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="14">
-        <v>4</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N27" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" customHeight="1" ht="24">
       <c r="A28" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="14">
         <v>1</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18"/>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="14">
         <v>1</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>21</v>
+      <c r="I28" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J28" s="14">
         <v>1</v>
@@ -1595,7 +1648,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N28" s="14">
         <v>1</v>
@@ -1604,326 +1657,254 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" customHeight="1" ht="24">
       <c r="A29" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="14">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N29" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" customHeight="1" ht="24">
       <c r="A30" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="18">
-        <v>3</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="E30" s="14">
+        <v>2</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="14">
-        <v>3</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" customHeight="1" ht="24">
       <c r="A31" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="14">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="J31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N31" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
+    <row r="32" spans="1:17" customHeight="1" ht="24">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14">
-        <v>5</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
-        <v>5</v>
-      </c>
-      <c r="H32" s="14">
-        <v>5</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="14">
-        <v>5</v>
-      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="14">
-        <v>5</v>
-      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="14">
-        <v>2</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <v>2</v>
-      </c>
-      <c r="H33" s="14">
-        <v>2</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="14">
-        <v>2</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="14">
-        <v>2</v>
-      </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-    </row>
-    <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="33" spans="1:17" customHeight="1" ht="24">
+      <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="14">
-        <v>2</v>
-      </c>
+      <c r="B33" s="16" t="str">
+        <f>SUM(B18:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16" t="str">
+        <f>SUM(E18:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="16" t="str">
+        <f>SUM(G18:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16" t="str">
+        <f>SUM(H18:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="16">
+        <v>1</v>
+      </c>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="24">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14">
-        <v>2</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
-        <v>2</v>
-      </c>
-      <c r="H34" s="14">
-        <v>2</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="14">
-        <v>2</v>
-      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="14">
-        <v>2</v>
-      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="14">
-        <v>4</v>
-      </c>
+    <row r="35" spans="1:17" customHeight="1" ht="24">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14">
-        <v>4</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14">
-        <v>4</v>
-      </c>
-      <c r="H35" s="14">
-        <v>4</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="14">
-        <v>4</v>
-      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="14">
-        <v>4</v>
-      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="16">
-        <f>SUM(B18:B35)</f>
-        <v>55</v>
-      </c>
+    <row r="36" spans="1:17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="16">
-        <f>SUM(E18:E35)</f>
-        <v>55</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16">
-        <f>SUM(G18:G35)</f>
-        <v>55</v>
-      </c>
-      <c r="H37" s="16">
-        <f>SUM(H18:H35)</f>
-        <v>55</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="16">
-        <v>1</v>
-      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1942,7 +1923,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1961,7 +1942,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1980,7 +1961,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1999,7 +1980,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2018,7 +1999,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2037,7 +2018,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2056,7 +2037,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2075,7 +2056,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2094,7 +2075,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2113,9 +2094,38 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
+    <row r="50" spans="1:17">
+      <c r="B50"/>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="32">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2129,60 +2139,80 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="80" fitToHeight="0" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>OFFICE</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">PERIOD: </t>
   </si>
   <si>
-    <t>Month of April 2021</t>
+    <t>Month of June 2021</t>
   </si>
   <si>
     <t>Date</t>
@@ -167,49 +167,34 @@
     </r>
   </si>
   <si>
-    <t>April 05, 2021</t>
+    <t>June 15, 2021</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>April 06, 2021</t>
-  </si>
-  <si>
-    <t>April 07, 2021</t>
-  </si>
-  <si>
-    <t>April 08, 2021</t>
-  </si>
-  <si>
-    <t>April 12, 2021</t>
-  </si>
-  <si>
-    <t>April 14, 2021</t>
-  </si>
-  <si>
-    <t>April 15, 2021</t>
-  </si>
-  <si>
-    <t>April 16, 2021</t>
-  </si>
-  <si>
-    <t>April 19, 2021</t>
-  </si>
-  <si>
-    <t>April 22, 2021</t>
-  </si>
-  <si>
-    <t>April 26, 2021</t>
-  </si>
-  <si>
-    <t>April 28, 2021</t>
-  </si>
-  <si>
-    <t>April 29, 2021</t>
-  </si>
-  <si>
-    <t>April 30, 2021</t>
+    <t>June 16, 2021</t>
+  </si>
+  <si>
+    <t>June 17, 2021</t>
+  </si>
+  <si>
+    <t>June 18, 2021</t>
+  </si>
+  <si>
+    <t>June 21, 2021</t>
+  </si>
+  <si>
+    <t>June 22, 2021</t>
+  </si>
+  <si>
+    <t>June 24, 2021</t>
+  </si>
+  <si>
+    <t>June 28, 2021</t>
+  </si>
+  <si>
+    <t>June 29, 2021</t>
   </si>
   <si>
     <t>Total</t>
@@ -652,9 +637,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8343900" cy="1276350"/>
@@ -684,7 +669,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9963150" cy="1609725"/>
@@ -1004,10 +989,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,25 +1277,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1318,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="N19" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1329,25 +1314,25 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1355,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="N20" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -1440,25 +1425,25 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -1466,7 +1451,7 @@
         <v>23</v>
       </c>
       <c r="N23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
@@ -1477,25 +1462,25 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -1503,7 +1488,7 @@
         <v>23</v>
       </c>
       <c r="N24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
@@ -1514,25 +1499,25 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -1540,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="N25" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -1551,25 +1536,25 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -1577,193 +1562,125 @@
         <v>23</v>
       </c>
       <c r="N26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" customHeight="1" ht="24">
-      <c r="A27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="14">
-        <v>3</v>
-      </c>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14">
-        <v>3</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
-        <v>3</v>
-      </c>
-      <c r="H27" s="14">
-        <v>3</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="14">
-        <v>3</v>
-      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="14">
-        <v>3</v>
-      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="24">
-      <c r="A28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15" t="s">
+      <c r="A28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="16" t="str">
+        <f>SUM(B18:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16" t="str">
+        <f>SUM(E18:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="16" t="str">
+        <f>SUM(G18:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16" t="str">
+        <f>SUM(H18:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14" t="s">
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="14">
-        <v>1</v>
-      </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="N28" s="16">
+        <v>1</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="24">
-      <c r="A29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="14">
-        <v>2</v>
-      </c>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="14">
-        <v>2</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="14">
-        <v>2</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="14">
-        <v>2</v>
-      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="14">
-        <v>2</v>
-      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="24">
-      <c r="A30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="14">
-        <v>2</v>
-      </c>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="14">
-        <v>2</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
-        <v>2</v>
-      </c>
-      <c r="H30" s="14">
-        <v>2</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="14">
-        <v>2</v>
-      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="14">
-        <v>2</v>
-      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="24">
-      <c r="A31" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="14">
-        <v>2</v>
-      </c>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="14">
-        <v>2</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
-        <v>2</v>
-      </c>
-      <c r="H31" s="14">
-        <v>2</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="14">
-        <v>2</v>
-      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="14">
-        <v>2</v>
-      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -1788,45 +1705,23 @@
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="24">
-      <c r="A33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f>SUM(B18:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="str">
-        <f>SUM(E18:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16" t="str">
-        <f>SUM(G18:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="str">
-        <f>SUM(H18:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="16">
-        <v>1</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="16">
-        <v>1</v>
-      </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="24">
       <c r="A34" s="14"/>
@@ -2093,9 +1988,6 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/_pslReport.xlsx
+++ b/_pslReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>OFFICE</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">PERIOD: </t>
   </si>
   <si>
-    <t>Month of June 2021</t>
+    <t>Month of February 2023</t>
   </si>
   <si>
     <t>Date</t>
@@ -167,34 +167,16 @@
     </r>
   </si>
   <si>
-    <t>June 15, 2021</t>
+    <t>January 26, 2023</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>June 16, 2021</t>
-  </si>
-  <si>
-    <t>June 17, 2021</t>
-  </si>
-  <si>
-    <t>June 18, 2021</t>
-  </si>
-  <si>
-    <t>June 21, 2021</t>
-  </si>
-  <si>
-    <t>June 22, 2021</t>
-  </si>
-  <si>
-    <t>June 24, 2021</t>
-  </si>
-  <si>
-    <t>June 28, 2021</t>
-  </si>
-  <si>
-    <t>June 29, 2021</t>
+    <t>January 31, 2023</t>
+  </si>
+  <si>
+    <t>February 01, 2023</t>
   </si>
   <si>
     <t>Total</t>
@@ -639,7 +621,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8343900" cy="1276350"/>
@@ -669,7 +651,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9963150" cy="1609725"/>
@@ -992,7 +974,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,25 +1222,25 @@
         <v>22</v>
       </c>
       <c r="B18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1266,7 +1248,7 @@
         <v>23</v>
       </c>
       <c r="N18" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -1277,25 +1259,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1303,7 +1285,7 @@
         <v>23</v>
       </c>
       <c r="N19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -1314,25 +1296,25 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1340,230 +1322,144 @@
         <v>23</v>
       </c>
       <c r="N20" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="24">
-      <c r="A21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="14">
-        <v>2</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14">
-        <v>2</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
-        <v>2</v>
-      </c>
-      <c r="H21" s="14">
-        <v>2</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="14">
-        <v>2</v>
-      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="14">
-        <v>2</v>
-      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="24">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="16" t="str">
+        <f>SUM(B18:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="str">
+        <f>SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16" t="str">
+        <f>SUM(G18:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f>SUM(H18:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="16">
         <v>1</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="14">
-        <v>1</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="14">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="24">
-      <c r="A23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1</v>
-      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="14">
-        <v>1</v>
-      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="24">
-      <c r="A24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14">
-        <v>2</v>
-      </c>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="14">
-        <v>2</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
-        <v>2</v>
-      </c>
-      <c r="H24" s="14">
-        <v>2</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="14">
-        <v>2</v>
-      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="14">
-        <v>2</v>
-      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="24">
-      <c r="A25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="14">
-        <v>2</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
-        <v>2</v>
-      </c>
-      <c r="H25" s="14">
-        <v>2</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="14">
-        <v>2</v>
-      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="14">
-        <v>2</v>
-      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="24">
-      <c r="A26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="14">
-        <v>2</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14">
-        <v>2</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
-        <v>2</v>
-      </c>
-      <c r="H26" s="14">
-        <v>2</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="14">
-        <v>2</v>
-      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="14">
-        <v>2</v>
-      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -1588,45 +1484,23 @@
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="24">
-      <c r="A28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="16" t="str">
-        <f>SUM(B18:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="str">
-        <f>SUM(E18:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16" t="str">
-        <f>SUM(G18:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="16" t="str">
-        <f>SUM(H18:H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="24">
       <c r="A29" s="14"/>
